--- a/xlsx/country_comparison/points_positive.xlsx
+++ b/xlsx/country_comparison/points_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">econ1</t>
@@ -422,308 +419,260 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.592592592592593</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.738461538461539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.806451612903226</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.529411764705882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.708333333333333</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.615384615384615</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.923076923076923</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8125</v>
+        <v>0.947368421052632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.545454545454545</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.428571428571429</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="E4" t="n">
-        <v>0.793103448275862</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.72972972972973</v>
+        <v>0.722222222222222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.84</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.625</v>
+        <v>0.767123287671233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.727272727272727</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="E5" t="n">
-        <v>0.769230769230769</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.878787878787879</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.722222222222222</v>
+        <v>0.573770491803279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.818181818181818</v>
+        <v>0.76</v>
       </c>
       <c r="D6" t="n">
-        <v>0.722222222222222</v>
+        <v>0.840909090909091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.695652173913043</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.64</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.833333333333333</v>
+        <v>0.703703703703704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.375</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.645161290322581</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.612903225806452</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.606060606060606</v>
+        <v>0.641509433962264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.857142857142857</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.866666666666667</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="E8" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.628571428571429</v>
+        <v>0.882352941176471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.887323943661972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888888888888889</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="E9" t="n">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.84</v>
+        <v>0.789473684210526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.571428571428571</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.636363636363636</v>
+        <v>0.635135135135135</v>
       </c>
       <c r="D10" t="n">
-        <v>0.833333333333333</v>
+        <v>0.618181818181818</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.59375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.733333333333333</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="C11" t="n">
-        <v>0.909090909090909</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.666666666666667</v>
+        <v>0.78</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.806451612903226</v>
+        <v>0.787234042553192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.785714285714286</v>
+        <v>0.661538461538462</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="E12" t="n">
-        <v>0.806451612903226</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.857142857142857</v>
+        <v>0.894736842105263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.740740740740741</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="C13" t="n">
-        <v>0.785714285714286</v>
+        <v>0.847222222222222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.870967741935484</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.764705882352941</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.802631578947368</v>
       </c>
       <c r="D14" t="n">
-        <v>0.857142857142857</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.923076923076923</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.555555555555556</v>
+        <v>0.759259259259259</v>
       </c>
       <c r="C15" t="n">
-        <v>0.578947368421053</v>
+        <v>0.797101449275362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="E15" t="n">
-        <v>0.703703703703704</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.68</v>
+        <v>0.619047619047619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>0.692307692307692</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C16" t="n">
-        <v>0.538461538461538</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="D16" t="n">
-        <v>0.545454545454545</v>
+        <v>0.765957446808511</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_positive.xlsx
+++ b/xlsx/country_comparison/points_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">econ1</t>
@@ -419,260 +422,308 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.692307692307692</v>
+        <v>0.616858237547893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.738461538461539</v>
+        <v>0.676258992805755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.978260869565217</v>
+        <v>0.960199004975124</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.953307392996109</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.655973451327434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.929824561403509</v>
+        <v>0.845559845559846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.833333333333333</v>
+        <v>0.844594594594595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.875</v>
+        <v>0.869158878504673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.947368421052632</v>
+        <v>0.92057761732852</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.840262582056893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.454545454545455</v>
+        <v>0.539748953974895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.810810810810811</v>
+        <v>0.815181518151815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76271186440678</v>
+        <v>0.802690582959641</v>
       </c>
       <c r="E4" t="n">
-        <v>0.722222222222222</v>
+        <v>0.61003861003861</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.803474484256243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.793103448275862</v>
+        <v>0.895752895752896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.767123287671233</v>
+        <v>0.807817589576547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.944444444444444</v>
+        <v>0.934579439252336</v>
       </c>
       <c r="E5" t="n">
-        <v>0.916666666666667</v>
+        <v>0.881294964028777</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.88628762541806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.573770491803279</v>
+        <v>0.686507936507937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.76</v>
+        <v>0.762345679012346</v>
       </c>
       <c r="D6" t="n">
-        <v>0.840909090909091</v>
+        <v>0.762931034482759</v>
       </c>
       <c r="E6" t="n">
-        <v>0.666666666666667</v>
+        <v>0.807547169811321</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.574786324786325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.703703703703704</v>
+        <v>0.697247706422018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.608695652173913</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="D7" t="n">
-        <v>0.770833333333333</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="E7" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428044280442804</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.598941798941799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.641509433962264</v>
+        <v>0.65843621399177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.772727272727273</v>
+        <v>0.79672131147541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.96969696969697</v>
+        <v>0.900473933649289</v>
       </c>
       <c r="E8" t="n">
-        <v>0.882352941176471</v>
+        <v>0.786290322580645</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.695966907962771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.727272727272727</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.887323943661972</v>
+        <v>0.86084142394822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.839285714285714</v>
+        <v>0.800947867298578</v>
       </c>
       <c r="E9" t="n">
-        <v>0.789473684210526</v>
+        <v>0.812</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.813928182807399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.559322033898305</v>
+        <v>0.581395348837209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.635135135135135</v>
+        <v>0.533546325878594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.618181818181818</v>
+        <v>0.623853211009174</v>
       </c>
       <c r="E10" t="n">
-        <v>0.666666666666667</v>
+        <v>0.690839694656489</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.619895287958115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.724137931034483</v>
+        <v>0.79746835443038</v>
       </c>
       <c r="C11" t="n">
-        <v>0.772727272727273</v>
+        <v>0.776073619631902</v>
       </c>
       <c r="D11" t="n">
-        <v>0.78</v>
+        <v>0.829596412556054</v>
       </c>
       <c r="E11" t="n">
-        <v>0.722222222222222</v>
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.665938864628821</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.787234042553192</v>
+        <v>0.760504201680672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.661538461538462</v>
+        <v>0.778156996587031</v>
       </c>
       <c r="D12" t="n">
-        <v>0.837209302325581</v>
+        <v>0.831683168316832</v>
       </c>
       <c r="E12" t="n">
-        <v>0.894736842105263</v>
+        <v>0.858921161825726</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.798553719008264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.741379310344828</v>
+        <v>0.839449541284404</v>
       </c>
       <c r="C13" t="n">
-        <v>0.847222222222222</v>
+        <v>0.8561872909699</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9</v>
+        <v>0.854077253218884</v>
       </c>
       <c r="E13" t="n">
-        <v>0.888888888888889</v>
+        <v>0.772549019607843</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.717127071823204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.779661016949153</v>
+        <v>0.780392156862745</v>
       </c>
       <c r="C14" t="n">
-        <v>0.802631578947368</v>
+        <v>0.853820598006645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.826086956521739</v>
+        <v>0.847290640394089</v>
       </c>
       <c r="E14" t="n">
-        <v>0.75</v>
+        <v>0.792307692307692</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.793926247288503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.759259259259259</v>
+        <v>0.788235294117647</v>
       </c>
       <c r="C15" t="n">
-        <v>0.797101449275362</v>
+        <v>0.777003484320557</v>
       </c>
       <c r="D15" t="n">
-        <v>0.867924528301887</v>
+        <v>0.84549356223176</v>
       </c>
       <c r="E15" t="n">
-        <v>0.619047619047619</v>
+        <v>0.743295019157088</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.725690890481064</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.711864406779661</v>
+        <v>0.763565891472868</v>
       </c>
       <c r="C16" t="n">
-        <v>0.857142857142857</v>
+        <v>0.752380952380952</v>
       </c>
       <c r="D16" t="n">
-        <v>0.765957446808511</v>
+        <v>0.722943722943723</v>
       </c>
       <c r="E16" t="n">
-        <v>0.666666666666667</v>
+        <v>0.493877551020408</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5917225950783</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_positive.xlsx
+++ b/xlsx/country_comparison/points_positive.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">econ1</t>
   </si>
   <si>
-    <t xml:space="preserve">econ2</t>
+    <t xml:space="preserve">econ2: [Higher minimum wage] (DE: Bürgerversicherung)</t>
   </si>
   <si>
     <t xml:space="preserve">econ3</t>
@@ -53,16 +53,16 @@
     <t xml:space="preserve">climate1</t>
   </si>
   <si>
-    <t xml:space="preserve">climate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate3</t>
+    <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
   </si>
   <si>
     <t xml:space="preserve">tax1: National redistribution scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">tax2: Wealth tax</t>
+    <t xml:space="preserve">tax2: Wealth tax (ES: raise tax on top incomes)</t>
   </si>
   <si>
     <t xml:space="preserve">foreign1: Global climate scheme</t>
@@ -431,19 +431,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.616858237547893</v>
+        <v>0.614626664746822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.676258992805755</v>
+        <v>0.673448956435183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.960199004975124</v>
+        <v>0.964722819514162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.953307392996109</v>
+        <v>0.96090662684002</v>
       </c>
       <c r="F2" t="n">
-        <v>0.655973451327434</v>
+        <v>0.635682396670351</v>
       </c>
     </row>
     <row r="3">
@@ -451,19 +451,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.845559845559846</v>
+        <v>0.845642188407192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.844594594594595</v>
+        <v>0.844318190258962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.869158878504673</v>
+        <v>0.869907263979412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.92057761732852</v>
+        <v>0.914847447680403</v>
       </c>
       <c r="F3" t="n">
-        <v>0.840262582056893</v>
+        <v>0.831170040285593</v>
       </c>
     </row>
     <row r="4">
@@ -471,19 +471,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.539748953974895</v>
+        <v>0.518518247253728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.815181518151815</v>
+        <v>0.819523127924792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.802690582959641</v>
+        <v>0.797850055070963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61003861003861</v>
+        <v>0.614824411605295</v>
       </c>
       <c r="F4" t="n">
-        <v>0.803474484256243</v>
+        <v>0.792676771716056</v>
       </c>
     </row>
     <row r="5">
@@ -491,19 +491,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.895752895752896</v>
+        <v>0.911385015885187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.807817589576547</v>
+        <v>0.810542502706027</v>
       </c>
       <c r="D5" t="n">
-        <v>0.934579439252336</v>
+        <v>0.932971949477178</v>
       </c>
       <c r="E5" t="n">
-        <v>0.881294964028777</v>
+        <v>0.882220688789502</v>
       </c>
       <c r="F5" t="n">
-        <v>0.88628762541806</v>
+        <v>0.87782879585029</v>
       </c>
     </row>
     <row r="6">
@@ -511,19 +511,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.686507936507937</v>
+        <v>0.670441313234152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762345679012346</v>
+        <v>0.761371531346252</v>
       </c>
       <c r="D6" t="n">
-        <v>0.762931034482759</v>
+        <v>0.760642638170749</v>
       </c>
       <c r="E6" t="n">
-        <v>0.807547169811321</v>
+        <v>0.79701369589903</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574786324786325</v>
+        <v>0.547863473802202</v>
       </c>
     </row>
     <row r="7">
@@ -531,19 +531,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.697247706422018</v>
+        <v>0.687150606891423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.545454545454545</v>
+        <v>0.550230284251658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.684210526315789</v>
+        <v>0.688051202644613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.428044280442804</v>
+        <v>0.415840959096371</v>
       </c>
       <c r="F7" t="n">
-        <v>0.598941798941799</v>
+        <v>0.58677924326788</v>
       </c>
     </row>
     <row r="8">
@@ -551,19 +551,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.65843621399177</v>
+        <v>0.655157604670277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.79672131147541</v>
+        <v>0.785344791233115</v>
       </c>
       <c r="D8" t="n">
-        <v>0.900473933649289</v>
+        <v>0.898084513333716</v>
       </c>
       <c r="E8" t="n">
-        <v>0.786290322580645</v>
+        <v>0.771744457030784</v>
       </c>
       <c r="F8" t="n">
-        <v>0.695966907962771</v>
+        <v>0.686562796527617</v>
       </c>
     </row>
     <row r="9">
@@ -571,19 +571,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.844444444444444</v>
+        <v>0.854685843893312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.86084142394822</v>
+        <v>0.858433496651732</v>
       </c>
       <c r="D9" t="n">
-        <v>0.800947867298578</v>
+        <v>0.792320717913984</v>
       </c>
       <c r="E9" t="n">
-        <v>0.812</v>
+        <v>0.787229585193523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.813928182807399</v>
+        <v>0.801197295412663</v>
       </c>
     </row>
     <row r="10">
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.581395348837209</v>
+        <v>0.568359943689084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.533546325878594</v>
+        <v>0.510715047575228</v>
       </c>
       <c r="D10" t="n">
-        <v>0.623853211009174</v>
+        <v>0.622564708401371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.690839694656489</v>
+        <v>0.670312377105447</v>
       </c>
       <c r="F10" t="n">
-        <v>0.619895287958115</v>
+        <v>0.60491871114576</v>
       </c>
     </row>
     <row r="11">
@@ -611,19 +611,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.79746835443038</v>
+        <v>0.80610322911133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.776073619631902</v>
+        <v>0.771248823911761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.829596412556054</v>
+        <v>0.828805563245801</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8</v>
+        <v>0.799247543397026</v>
       </c>
       <c r="F11" t="n">
-        <v>0.665938864628821</v>
+        <v>0.668432150857243</v>
       </c>
     </row>
     <row r="12">
@@ -631,19 +631,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.760504201680672</v>
+        <v>0.766522299100672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.778156996587031</v>
+        <v>0.76147185161086</v>
       </c>
       <c r="D12" t="n">
-        <v>0.831683168316832</v>
+        <v>0.83579972295323</v>
       </c>
       <c r="E12" t="n">
-        <v>0.858921161825726</v>
+        <v>0.853698432524621</v>
       </c>
       <c r="F12" t="n">
-        <v>0.798553719008264</v>
+        <v>0.792777678695237</v>
       </c>
     </row>
     <row r="13">
@@ -651,19 +651,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.839449541284404</v>
+        <v>0.838176607387941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8561872909699</v>
+        <v>0.869588935858732</v>
       </c>
       <c r="D13" t="n">
-        <v>0.854077253218884</v>
+        <v>0.846223319201234</v>
       </c>
       <c r="E13" t="n">
-        <v>0.772549019607843</v>
+        <v>0.775665334130945</v>
       </c>
       <c r="F13" t="n">
-        <v>0.717127071823204</v>
+        <v>0.701658743322167</v>
       </c>
     </row>
     <row r="14">
@@ -671,19 +671,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.780392156862745</v>
+        <v>0.779628992992191</v>
       </c>
       <c r="C14" t="n">
-        <v>0.853820598006645</v>
+        <v>0.839577052740989</v>
       </c>
       <c r="D14" t="n">
-        <v>0.847290640394089</v>
+        <v>0.855470789129196</v>
       </c>
       <c r="E14" t="n">
-        <v>0.792307692307692</v>
+        <v>0.78382755266891</v>
       </c>
       <c r="F14" t="n">
-        <v>0.793926247288503</v>
+        <v>0.799885810559455</v>
       </c>
     </row>
     <row r="15">
@@ -691,19 +691,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.788235294117647</v>
+        <v>0.769999421406321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.777003484320557</v>
+        <v>0.756052266941277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.84549356223176</v>
+        <v>0.848389578898924</v>
       </c>
       <c r="E15" t="n">
-        <v>0.743295019157088</v>
+        <v>0.747198193751894</v>
       </c>
       <c r="F15" t="n">
-        <v>0.725690890481064</v>
+        <v>0.715824579586858</v>
       </c>
     </row>
     <row r="16">
@@ -711,19 +711,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.763565891472868</v>
+        <v>0.764232481677536</v>
       </c>
       <c r="C16" t="n">
-        <v>0.752380952380952</v>
+        <v>0.754500967061304</v>
       </c>
       <c r="D16" t="n">
-        <v>0.722943722943723</v>
+        <v>0.711839910381293</v>
       </c>
       <c r="E16" t="n">
-        <v>0.493877551020408</v>
+        <v>0.491622017641811</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5917225950783</v>
+        <v>0.578408410726776</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_positive.xlsx
+++ b/xlsx/country_comparison/points_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">econ1</t>
@@ -425,305 +428,353 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.614626664746822</v>
+        <v>0.635682396670351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.673448956435183</v>
+        <v>0.780664771546367</v>
       </c>
       <c r="D2" t="n">
-        <v>0.964722819514162</v>
+        <v>0.606146006901055</v>
       </c>
       <c r="E2" t="n">
-        <v>0.96090662684002</v>
+        <v>0.674782625100427</v>
       </c>
       <c r="F2" t="n">
-        <v>0.635682396670351</v>
+        <v>0.975247681020375</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.969903721443955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.845642188407192</v>
+        <v>0.831170040285593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.844318190258962</v>
+        <v>0.867777892102601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.869907263979412</v>
+        <v>0.868544796834473</v>
       </c>
       <c r="E3" t="n">
-        <v>0.914847447680403</v>
+        <v>0.842738698623456</v>
       </c>
       <c r="F3" t="n">
-        <v>0.831170040285593</v>
+        <v>0.884126525861111</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.923493338772493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.518518247253728</v>
+        <v>0.792676771716056</v>
       </c>
       <c r="C4" t="n">
-        <v>0.819523127924792</v>
+        <v>0.690875985461713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.797850055070963</v>
+        <v>0.477013492035088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.614824411605295</v>
+        <v>0.803173472199935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.792676771716056</v>
+        <v>0.803037927015211</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.657912660357047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.911385015885187</v>
+        <v>0.87782879585029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.810542502706027</v>
+        <v>0.874877777799088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.932971949477178</v>
+        <v>0.925738457339564</v>
       </c>
       <c r="E5" t="n">
-        <v>0.882220688789502</v>
+        <v>0.812393604419156</v>
       </c>
       <c r="F5" t="n">
-        <v>0.87782879585029</v>
+        <v>0.900923021336289</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.842465418405921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.670441313234152</v>
+        <v>0.547863473802202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.761371531346252</v>
+        <v>0.748461391001326</v>
       </c>
       <c r="D6" t="n">
-        <v>0.760642638170749</v>
+        <v>0.688941872469367</v>
       </c>
       <c r="E6" t="n">
-        <v>0.79701369589903</v>
+        <v>0.746901734251772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.547863473802202</v>
+        <v>0.728276459593896</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.740618021682439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.687150606891423</v>
+        <v>0.58677924326788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.550230284251658</v>
+        <v>0.569667786326673</v>
       </c>
       <c r="D7" t="n">
-        <v>0.688051202644613</v>
+        <v>0.712563967057342</v>
       </c>
       <c r="E7" t="n">
-        <v>0.415840959096371</v>
+        <v>0.537889041601852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.58677924326788</v>
+        <v>0.670329217887074</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.436052566421152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.655157604670277</v>
+        <v>0.686562796527617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.785344791233115</v>
+        <v>0.770340730583573</v>
       </c>
       <c r="D8" t="n">
-        <v>0.898084513333716</v>
+        <v>0.64977957193088</v>
       </c>
       <c r="E8" t="n">
-        <v>0.771744457030784</v>
+        <v>0.777412649250284</v>
       </c>
       <c r="F8" t="n">
-        <v>0.686562796527617</v>
+        <v>0.901702884618113</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.787707367514096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.854685843893312</v>
+        <v>0.801197295412663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.858433496651732</v>
+        <v>0.828857755745952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.792320717913984</v>
+        <v>0.861484142472095</v>
       </c>
       <c r="E9" t="n">
-        <v>0.787229585193523</v>
+        <v>0.852794564485951</v>
       </c>
       <c r="F9" t="n">
-        <v>0.801197295412663</v>
+        <v>0.767907429381965</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.782732496874862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.568359943689084</v>
+        <v>0.60491871114576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.510715047575228</v>
+        <v>0.584440889545524</v>
       </c>
       <c r="D10" t="n">
-        <v>0.622564708401371</v>
+        <v>0.562752212716415</v>
       </c>
       <c r="E10" t="n">
-        <v>0.670312377105447</v>
+        <v>0.489774022046051</v>
       </c>
       <c r="F10" t="n">
-        <v>0.60491871114576</v>
+        <v>0.567174226279843</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.684142437899779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.80610322911133</v>
+        <v>0.668432150857243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.771248823911761</v>
+        <v>0.796922338387671</v>
       </c>
       <c r="D11" t="n">
-        <v>0.828805563245801</v>
+        <v>0.826205571067225</v>
       </c>
       <c r="E11" t="n">
-        <v>0.799247543397026</v>
+        <v>0.757135032002268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.668432150857243</v>
+        <v>0.834793452647954</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.826916574125642</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.766522299100672</v>
+        <v>0.792777678695237</v>
       </c>
       <c r="C12" t="n">
-        <v>0.76147185161086</v>
+        <v>0.798758491250909</v>
       </c>
       <c r="D12" t="n">
-        <v>0.83579972295323</v>
+        <v>0.79343550972436</v>
       </c>
       <c r="E12" t="n">
-        <v>0.853698432524621</v>
+        <v>0.765668494509448</v>
       </c>
       <c r="F12" t="n">
-        <v>0.792777678695237</v>
+        <v>0.841780227193697</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.884293591086561</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.838176607387941</v>
+        <v>0.701658743322167</v>
       </c>
       <c r="C13" t="n">
-        <v>0.869588935858732</v>
+        <v>0.83394647626494</v>
       </c>
       <c r="D13" t="n">
-        <v>0.846223319201234</v>
+        <v>0.837546839993234</v>
       </c>
       <c r="E13" t="n">
-        <v>0.775665334130945</v>
+        <v>0.863212455753191</v>
       </c>
       <c r="F13" t="n">
-        <v>0.701658743322167</v>
+        <v>0.850552871544887</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.826363879451465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.779628992992191</v>
+        <v>0.799885810559455</v>
       </c>
       <c r="C14" t="n">
-        <v>0.839577052740989</v>
+        <v>0.812944489810428</v>
       </c>
       <c r="D14" t="n">
-        <v>0.855470789129196</v>
+        <v>0.798942998459663</v>
       </c>
       <c r="E14" t="n">
-        <v>0.78382755266891</v>
+        <v>0.832655830340191</v>
       </c>
       <c r="F14" t="n">
-        <v>0.799885810559455</v>
+        <v>0.849402172442891</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.812337732231414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.769999421406321</v>
+        <v>0.715824579586858</v>
       </c>
       <c r="C15" t="n">
-        <v>0.756052266941277</v>
+        <v>0.775111679768485</v>
       </c>
       <c r="D15" t="n">
-        <v>0.848389578898924</v>
+        <v>0.807393966905648</v>
       </c>
       <c r="E15" t="n">
-        <v>0.747198193751894</v>
+        <v>0.722709243589684</v>
       </c>
       <c r="F15" t="n">
-        <v>0.715824579586858</v>
+        <v>0.823854613482996</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.779894568567699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.764232481677536</v>
+        <v>0.578408410726776</v>
       </c>
       <c r="C16" t="n">
-        <v>0.754500967061304</v>
+        <v>0.68669524476815</v>
       </c>
       <c r="D16" t="n">
-        <v>0.711839910381293</v>
+        <v>0.792913023037906</v>
       </c>
       <c r="E16" t="n">
-        <v>0.491622017641811</v>
+        <v>0.744243244084797</v>
       </c>
       <c r="F16" t="n">
-        <v>0.578408410726776</v>
+        <v>0.713889587073802</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.563750354405524</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_positive.xlsx
+++ b/xlsx/country_comparison/points_positive.xlsx
@@ -437,22 +437,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.635682396670351</v>
+        <v>0.637278815054894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.780664771546367</v>
+        <v>0.784703991196193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.606146006901055</v>
+        <v>0.611744452400758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.674782625100427</v>
+        <v>0.667695051667612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.975247681020375</v>
+        <v>0.977546353860228</v>
       </c>
       <c r="G2" t="n">
-        <v>0.969903721443955</v>
+        <v>0.954631773458379</v>
       </c>
     </row>
     <row r="3">
@@ -460,22 +460,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.831170040285593</v>
+        <v>0.832120665866449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.867777892102601</v>
+        <v>0.857642010722545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.868544796834473</v>
+        <v>0.846807053986467</v>
       </c>
       <c r="E3" t="n">
-        <v>0.842738698623456</v>
+        <v>0.837647337784504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.884126525861111</v>
+        <v>0.889338629738099</v>
       </c>
       <c r="G3" t="n">
-        <v>0.923493338772493</v>
+        <v>0.888893049032353</v>
       </c>
     </row>
     <row r="4">
@@ -483,22 +483,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.792676771716056</v>
+        <v>0.80652592058503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690875985461713</v>
+        <v>0.693050275422432</v>
       </c>
       <c r="D4" t="n">
-        <v>0.477013492035088</v>
+        <v>0.503742867176457</v>
       </c>
       <c r="E4" t="n">
-        <v>0.803173472199935</v>
+        <v>0.777502347638882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.803037927015211</v>
+        <v>0.802340698256805</v>
       </c>
       <c r="G4" t="n">
-        <v>0.657912660357047</v>
+        <v>0.679716366597699</v>
       </c>
     </row>
     <row r="5">
@@ -506,22 +506,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.87782879585029</v>
+        <v>0.876333336588512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.874877777799088</v>
+        <v>0.857678525091347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.925738457339564</v>
+        <v>0.913418110038868</v>
       </c>
       <c r="E5" t="n">
-        <v>0.812393604419156</v>
+        <v>0.78969756309767</v>
       </c>
       <c r="F5" t="n">
-        <v>0.900923021336289</v>
+        <v>0.900889442406317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.842465418405921</v>
+        <v>0.852433272709463</v>
       </c>
     </row>
     <row r="6">
@@ -529,22 +529,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.547863473802202</v>
+        <v>0.56883111655465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.748461391001326</v>
+        <v>0.747363908888198</v>
       </c>
       <c r="D6" t="n">
-        <v>0.688941872469367</v>
+        <v>0.693734337700598</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746901734251772</v>
+        <v>0.742005958854081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.728276459593896</v>
+        <v>0.732162326075853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.740618021682439</v>
+        <v>0.779401034041479</v>
       </c>
     </row>
     <row r="7">
@@ -552,22 +552,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.58677924326788</v>
+        <v>0.583728290623057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.569667786326673</v>
+        <v>0.57913117486157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.712563967057342</v>
+        <v>0.721503563015191</v>
       </c>
       <c r="E7" t="n">
-        <v>0.537889041601852</v>
+        <v>0.530747400259782</v>
       </c>
       <c r="F7" t="n">
-        <v>0.670329217887074</v>
+        <v>0.672788810024087</v>
       </c>
       <c r="G7" t="n">
-        <v>0.436052566421152</v>
+        <v>0.48090966292252</v>
       </c>
     </row>
     <row r="8">
@@ -575,22 +575,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.686562796527617</v>
+        <v>0.700302786414499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.770340730583573</v>
+        <v>0.763814034603485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64977957193088</v>
+        <v>0.649615949577494</v>
       </c>
       <c r="E8" t="n">
-        <v>0.777412649250284</v>
+        <v>0.790756019329837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.901702884618113</v>
+        <v>0.90292823211265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.787707367514096</v>
+        <v>0.754831559499512</v>
       </c>
     </row>
     <row r="9">
@@ -598,22 +598,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.801197295412663</v>
+        <v>0.794603636998465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.828857755745952</v>
+        <v>0.826445176675647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.861484142472095</v>
+        <v>0.862127460912143</v>
       </c>
       <c r="E9" t="n">
-        <v>0.852794564485951</v>
+        <v>0.839089180158753</v>
       </c>
       <c r="F9" t="n">
-        <v>0.767907429381965</v>
+        <v>0.775099173817302</v>
       </c>
       <c r="G9" t="n">
-        <v>0.782732496874862</v>
+        <v>0.803158728143301</v>
       </c>
     </row>
     <row r="10">
@@ -621,22 +621,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.60491871114576</v>
+        <v>0.624100120429845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.584440889545524</v>
+        <v>0.578841110002584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.562752212716415</v>
+        <v>0.559939486022885</v>
       </c>
       <c r="E10" t="n">
-        <v>0.489774022046051</v>
+        <v>0.47942243904571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.567174226279843</v>
+        <v>0.565426320829239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.684142437899779</v>
+        <v>0.700663163230792</v>
       </c>
     </row>
     <row r="11">
@@ -644,22 +644,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.668432150857243</v>
+        <v>0.672452642814799</v>
       </c>
       <c r="C11" t="n">
-        <v>0.796922338387671</v>
+        <v>0.78958174719632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.826205571067225</v>
+        <v>0.794093554595749</v>
       </c>
       <c r="E11" t="n">
-        <v>0.757135032002268</v>
+        <v>0.761887918911924</v>
       </c>
       <c r="F11" t="n">
-        <v>0.834793452647954</v>
+        <v>0.84214600543438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.826916574125642</v>
+        <v>0.792685889730533</v>
       </c>
     </row>
     <row r="12">
@@ -667,22 +667,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.792777678695237</v>
+        <v>0.801783289367114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.798758491250909</v>
+        <v>0.791630483256353</v>
       </c>
       <c r="D12" t="n">
-        <v>0.79343550972436</v>
+        <v>0.762931455550182</v>
       </c>
       <c r="E12" t="n">
-        <v>0.765668494509448</v>
+        <v>0.775661805486125</v>
       </c>
       <c r="F12" t="n">
-        <v>0.841780227193697</v>
+        <v>0.837887699055579</v>
       </c>
       <c r="G12" t="n">
-        <v>0.884293591086561</v>
+        <v>0.849697688671459</v>
       </c>
     </row>
     <row r="13">
@@ -690,22 +690,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.701658743322167</v>
+        <v>0.711856908946298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.83394647626494</v>
+        <v>0.82788700619946</v>
       </c>
       <c r="D13" t="n">
-        <v>0.837546839993234</v>
+        <v>0.836345743958251</v>
       </c>
       <c r="E13" t="n">
-        <v>0.863212455753191</v>
+        <v>0.845190074594039</v>
       </c>
       <c r="F13" t="n">
-        <v>0.850552871544887</v>
+        <v>0.854007278693856</v>
       </c>
       <c r="G13" t="n">
-        <v>0.826363879451465</v>
+        <v>0.781468113965147</v>
       </c>
     </row>
     <row r="14">
@@ -713,22 +713,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.799885810559455</v>
+        <v>0.79880027931918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.812944489810428</v>
+        <v>0.81453885043664</v>
       </c>
       <c r="D14" t="n">
-        <v>0.798942998459663</v>
+        <v>0.790251314769169</v>
       </c>
       <c r="E14" t="n">
-        <v>0.832655830340191</v>
+        <v>0.82559795963365</v>
       </c>
       <c r="F14" t="n">
-        <v>0.849402172442891</v>
+        <v>0.851977016361699</v>
       </c>
       <c r="G14" t="n">
-        <v>0.812337732231414</v>
+        <v>0.818172289939328</v>
       </c>
     </row>
     <row r="15">
@@ -736,22 +736,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.715824579586858</v>
+        <v>0.714732603698912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.775111679768485</v>
+        <v>0.77485204811451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.807393966905648</v>
+        <v>0.789656572994913</v>
       </c>
       <c r="E15" t="n">
-        <v>0.722709243589684</v>
+        <v>0.74349887623983</v>
       </c>
       <c r="F15" t="n">
-        <v>0.823854613482996</v>
+        <v>0.83354158374669</v>
       </c>
       <c r="G15" t="n">
-        <v>0.779894568567699</v>
+        <v>0.76174510480835</v>
       </c>
     </row>
     <row r="16">
@@ -759,22 +759,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.578408410726776</v>
+        <v>0.581885358358266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.68669524476815</v>
+        <v>0.699153732125524</v>
       </c>
       <c r="D16" t="n">
-        <v>0.792913023037906</v>
+        <v>0.786831696143027</v>
       </c>
       <c r="E16" t="n">
-        <v>0.744243244084797</v>
+        <v>0.744161409240646</v>
       </c>
       <c r="F16" t="n">
-        <v>0.713889587073802</v>
+        <v>0.716784524357897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.563750354405524</v>
+        <v>0.572018427961474</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_positive.xlsx
+++ b/xlsx/country_comparison/points_positive.xlsx
@@ -59,7 +59,8 @@
     <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
   </si>
   <si>
-    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
+    <t xml:space="preserve">climate3: Ban the sale of new
+combustion-engine cars by 2030</t>
   </si>
   <si>
     <t xml:space="preserve">tax1: National redistribution scheme</t>
@@ -437,22 +438,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.637278815054894</v>
+        <v>0.637372904029895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.784703991196193</v>
+        <v>0.783805341757823</v>
       </c>
       <c r="D2" t="n">
-        <v>0.611744452400758</v>
+        <v>0.611720406441344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.667695051667612</v>
+        <v>0.667652651104253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.977546353860228</v>
+        <v>0.962535860751196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.954631773458379</v>
+        <v>0.954628711089672</v>
       </c>
     </row>
     <row r="3">
@@ -460,22 +461,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.832120665866449</v>
+        <v>0.832071176976898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.857642010722545</v>
+        <v>0.857633658350567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.846807053986467</v>
+        <v>0.846729779003791</v>
       </c>
       <c r="E3" t="n">
-        <v>0.837647337784504</v>
+        <v>0.83767049907743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.889338629738099</v>
+        <v>0.870774529264404</v>
       </c>
       <c r="G3" t="n">
-        <v>0.888893049032353</v>
+        <v>0.888889400825906</v>
       </c>
     </row>
     <row r="4">
@@ -483,22 +484,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.80652592058503</v>
+        <v>0.806649693500696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.693050275422432</v>
+        <v>0.693828541427267</v>
       </c>
       <c r="D4" t="n">
-        <v>0.503742867176457</v>
+        <v>0.503788197181973</v>
       </c>
       <c r="E4" t="n">
-        <v>0.777502347638882</v>
+        <v>0.777548545784501</v>
       </c>
       <c r="F4" t="n">
-        <v>0.802340698256805</v>
+        <v>0.797584261290613</v>
       </c>
       <c r="G4" t="n">
-        <v>0.679716366597699</v>
+        <v>0.679717180882498</v>
       </c>
     </row>
     <row r="5">
@@ -506,22 +507,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.876333336588512</v>
+        <v>0.876277717753633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.857678525091347</v>
+        <v>0.85583054239144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.913418110038868</v>
+        <v>0.913460574184681</v>
       </c>
       <c r="E5" t="n">
-        <v>0.78969756309767</v>
+        <v>0.789726562696184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.900889442406317</v>
+        <v>0.893304484571986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.852433272709463</v>
+        <v>0.852438416885301</v>
       </c>
     </row>
     <row r="6">
@@ -529,22 +530,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.56883111655465</v>
+        <v>0.568918325638433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.747363908888198</v>
+        <v>0.747771232550676</v>
       </c>
       <c r="D6" t="n">
-        <v>0.693734337700598</v>
+        <v>0.693789395820279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.742005958854081</v>
+        <v>0.741998520937133</v>
       </c>
       <c r="F6" t="n">
-        <v>0.732162326075853</v>
+        <v>0.736160346382132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.779401034041479</v>
+        <v>0.779407392586086</v>
       </c>
     </row>
     <row r="7">
@@ -552,22 +553,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.583728290623057</v>
+        <v>0.583722012843081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.57913117486157</v>
+        <v>0.57659489697438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.721503563015191</v>
+        <v>0.721416887044479</v>
       </c>
       <c r="E7" t="n">
-        <v>0.530747400259782</v>
+        <v>0.530742747983465</v>
       </c>
       <c r="F7" t="n">
-        <v>0.672788810024087</v>
+        <v>0.640592724699773</v>
       </c>
       <c r="G7" t="n">
-        <v>0.48090966292252</v>
+        <v>0.480912956959627</v>
       </c>
     </row>
     <row r="8">
@@ -575,22 +576,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.700302786414499</v>
+        <v>0.700355311843266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.763814034603485</v>
+        <v>0.763638483288072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.649615949577494</v>
+        <v>0.64968586772021</v>
       </c>
       <c r="E8" t="n">
-        <v>0.790756019329837</v>
+        <v>0.7907471817219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.90292823211265</v>
+        <v>0.891434457770713</v>
       </c>
       <c r="G8" t="n">
-        <v>0.754831559499512</v>
+        <v>0.754809734771349</v>
       </c>
     </row>
     <row r="9">
@@ -598,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.794603636998465</v>
+        <v>0.794665836663391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.826445176675647</v>
+        <v>0.825452653978534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.862127460912143</v>
+        <v>0.862198463346188</v>
       </c>
       <c r="E9" t="n">
-        <v>0.839089180158753</v>
+        <v>0.83908845037742</v>
       </c>
       <c r="F9" t="n">
-        <v>0.775099173817302</v>
+        <v>0.783880322402835</v>
       </c>
       <c r="G9" t="n">
-        <v>0.803158728143301</v>
+        <v>0.803122575444206</v>
       </c>
     </row>
     <row r="10">
@@ -621,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.624100120429845</v>
+        <v>0.624076284194441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.578841110002584</v>
+        <v>0.583189391484559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.559939486022885</v>
+        <v>0.560030258502528</v>
       </c>
       <c r="E10" t="n">
-        <v>0.47942243904571</v>
+        <v>0.479435614164848</v>
       </c>
       <c r="F10" t="n">
-        <v>0.565426320829239</v>
+        <v>0.598635095564671</v>
       </c>
       <c r="G10" t="n">
-        <v>0.700663163230792</v>
+        <v>0.700650810772119</v>
       </c>
     </row>
     <row r="11">
@@ -644,22 +645,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.672452642814799</v>
+        <v>0.672450987190444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.78958174719632</v>
+        <v>0.788729157193707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.794093554595749</v>
+        <v>0.794136365653854</v>
       </c>
       <c r="E11" t="n">
-        <v>0.761887918911924</v>
+        <v>0.761903896360653</v>
       </c>
       <c r="F11" t="n">
-        <v>0.84214600543438</v>
+        <v>0.820677037210474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.792685889730533</v>
+        <v>0.792656651211389</v>
       </c>
     </row>
     <row r="12">
@@ -667,22 +668,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.801783289367114</v>
+        <v>0.801839174799188</v>
       </c>
       <c r="C12" t="n">
-        <v>0.791630483256353</v>
+        <v>0.791202155434969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.762931455550182</v>
+        <v>0.762842259153019</v>
       </c>
       <c r="E12" t="n">
-        <v>0.775661805486125</v>
+        <v>0.775632770046069</v>
       </c>
       <c r="F12" t="n">
-        <v>0.837887699055579</v>
+        <v>0.82510033902061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.849697688671459</v>
+        <v>0.849656256850927</v>
       </c>
     </row>
     <row r="13">
@@ -690,22 +691,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.711856908946298</v>
+        <v>0.711952631580924</v>
       </c>
       <c r="C13" t="n">
-        <v>0.82788700619946</v>
+        <v>0.826585039353645</v>
       </c>
       <c r="D13" t="n">
-        <v>0.836345743958251</v>
+        <v>0.836413308044687</v>
       </c>
       <c r="E13" t="n">
-        <v>0.845190074594039</v>
+        <v>0.845188328483339</v>
       </c>
       <c r="F13" t="n">
-        <v>0.854007278693856</v>
+        <v>0.838953528961754</v>
       </c>
       <c r="G13" t="n">
-        <v>0.781468113965147</v>
+        <v>0.781436268225185</v>
       </c>
     </row>
     <row r="14">
@@ -713,22 +714,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.79880027931918</v>
+        <v>0.798902933525609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.81453885043664</v>
+        <v>0.810489188030382</v>
       </c>
       <c r="D14" t="n">
-        <v>0.790251314769169</v>
+        <v>0.790239955867968</v>
       </c>
       <c r="E14" t="n">
-        <v>0.82559795963365</v>
+        <v>0.825590268950522</v>
       </c>
       <c r="F14" t="n">
-        <v>0.851977016361699</v>
+        <v>0.824135495290505</v>
       </c>
       <c r="G14" t="n">
-        <v>0.818172289939328</v>
+        <v>0.818175041156731</v>
       </c>
     </row>
     <row r="15">
@@ -736,22 +737,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.714732603698912</v>
+        <v>0.71470528720425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.77485204811451</v>
+        <v>0.773978648905211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.789656572994913</v>
+        <v>0.789600091188154</v>
       </c>
       <c r="E15" t="n">
-        <v>0.74349887623983</v>
+        <v>0.743501280564486</v>
       </c>
       <c r="F15" t="n">
-        <v>0.83354158374669</v>
+        <v>0.831075487206287</v>
       </c>
       <c r="G15" t="n">
-        <v>0.76174510480835</v>
+        <v>0.761741192231097</v>
       </c>
     </row>
     <row r="16">
@@ -759,22 +760,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.581885358358266</v>
+        <v>0.582002503082714</v>
       </c>
       <c r="C16" t="n">
-        <v>0.699153732125524</v>
+        <v>0.701421440452333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.786831696143027</v>
+        <v>0.786951735941418</v>
       </c>
       <c r="E16" t="n">
-        <v>0.744161409240646</v>
+        <v>0.744184169652737</v>
       </c>
       <c r="F16" t="n">
-        <v>0.716784524357897</v>
+        <v>0.737670322759518</v>
       </c>
       <c r="G16" t="n">
-        <v>0.572018427961474</v>
+        <v>0.571994695597149</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_positive.xlsx
+++ b/xlsx/country_comparison/points_positive.xlsx
@@ -59,8 +59,7 @@
     <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
   </si>
   <si>
-    <t xml:space="preserve">climate3: Ban the sale of new
-combustion-engine cars by 2030</t>
+    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
   </si>
   <si>
     <t xml:space="preserve">tax1: National redistribution scheme</t>
